--- a/app/db/relatorio.xlsx
+++ b/app/db/relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae51ece41dcfa04f/Projetos/MyHabits/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae51ece41dcfa04f/Projetos/MyHabits/app/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D361C20488DEA4E38A0AC441C5AE25ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCC4F76-72D7-4704-B4F4-8055975F6C16}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D361C20488DEA4E38A0AC441C5AE25ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F31D947-1328-4885-BD88-EF1421C92F05}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7065" yWindow="1815" windowWidth="11970" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>RELATORIO_FISIO</t>
+  </si>
+  <si>
+    <t>PRONTUARIO</t>
   </si>
 </sst>
 </file>
@@ -92,10 +95,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,9 +372,10 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,6 +390,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
